--- a/virus genome length and GC content.xlsx
+++ b/virus genome length and GC content.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="v1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="331">
   <si>
     <t>File No.</t>
   </si>
@@ -396,7 +394,619 @@
     <t>Virus Genome Length and GC Content</t>
   </si>
   <si>
-    <t>source-https://www.ncbi.nlm.nih.gov/genbank/sars-cov-2-seqs/</t>
+    <t>MT233523.1</t>
+  </si>
+  <si>
+    <t>MT240479.1</t>
+  </si>
+  <si>
+    <t>MT253696.1</t>
+  </si>
+  <si>
+    <t>MT253697.1</t>
+  </si>
+  <si>
+    <t>MT253698.1</t>
+  </si>
+  <si>
+    <t>MT253699.1</t>
+  </si>
+  <si>
+    <t>MT253700.1</t>
+  </si>
+  <si>
+    <t>MT253701.1</t>
+  </si>
+  <si>
+    <t>MT253702.1</t>
+  </si>
+  <si>
+    <t>MT253703.1</t>
+  </si>
+  <si>
+    <t>MT253704.1</t>
+  </si>
+  <si>
+    <t>MT253705.1</t>
+  </si>
+  <si>
+    <t>MT253707.1</t>
+  </si>
+  <si>
+    <t>MT253708.1</t>
+  </si>
+  <si>
+    <t>MT253709.1</t>
+  </si>
+  <si>
+    <t>MT253710.1</t>
+  </si>
+  <si>
+    <t>China: Hangzhou</t>
+  </si>
+  <si>
+    <t>China:-Hangzhou</t>
+  </si>
+  <si>
+    <t>Pakistan: Gilgit</t>
+  </si>
+  <si>
+    <t>Spain: Valencia</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>China:Beijing</t>
+  </si>
+  <si>
+    <t>China:Hubei,Wuhan</t>
+  </si>
+  <si>
+    <t>China:Wuhan</t>
+  </si>
+  <si>
+    <t>Pakistan:KPK</t>
+  </si>
+  <si>
+    <t>USA:CA</t>
+  </si>
+  <si>
+    <t>USA:FL</t>
+  </si>
+  <si>
+    <t>USA:GA</t>
+  </si>
+  <si>
+    <t>USA:OR</t>
+  </si>
+  <si>
+    <t>USA:RI</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>MT226610.1</t>
+  </si>
+  <si>
+    <t>MT281577.1</t>
+  </si>
+  <si>
+    <t>China: Anhui, Fuyang</t>
+  </si>
+  <si>
+    <t>MT291831.1</t>
+  </si>
+  <si>
+    <t>MT291832.1</t>
+  </si>
+  <si>
+    <t>MT291833.1</t>
+  </si>
+  <si>
+    <t>MT291834.1</t>
+  </si>
+  <si>
+    <t>MT291835.1</t>
+  </si>
+  <si>
+    <t>MT291836.1</t>
+  </si>
+  <si>
+    <t>MT259226.1</t>
+  </si>
+  <si>
+    <t>MT259227.1</t>
+  </si>
+  <si>
+    <t>MT259228.1</t>
+  </si>
+  <si>
+    <t>MT259229.1</t>
+  </si>
+  <si>
+    <t>MT259230.1</t>
+  </si>
+  <si>
+    <t>MT259231.1</t>
+  </si>
+  <si>
+    <t>MT291826.1</t>
+  </si>
+  <si>
+    <t>MT291827.1</t>
+  </si>
+  <si>
+    <t>MT291828.1</t>
+  </si>
+  <si>
+    <t>MT291829.1</t>
+  </si>
+  <si>
+    <t>MT291830.1</t>
+  </si>
+  <si>
+    <t>MT276597.1</t>
+  </si>
+  <si>
+    <t>MT276598.1</t>
+  </si>
+  <si>
+    <t>LC534418.1</t>
+  </si>
+  <si>
+    <t>LC534419.1</t>
+  </si>
+  <si>
+    <t>MT262993.1</t>
+  </si>
+  <si>
+    <t>MT263074.1</t>
+  </si>
+  <si>
+    <t>MT292573.1</t>
+  </si>
+  <si>
+    <t>MT292569.1</t>
+  </si>
+  <si>
+    <t>MT292571.1</t>
+  </si>
+  <si>
+    <t>MT292572.1</t>
+  </si>
+  <si>
+    <t>MT295464.1</t>
+  </si>
+  <si>
+    <t>MT295465.1</t>
+  </si>
+  <si>
+    <t>MT258378.1</t>
+  </si>
+  <si>
+    <t>MT276324.1</t>
+  </si>
+  <si>
+    <t>MT276329.1</t>
+  </si>
+  <si>
+    <t>MT276330.1</t>
+  </si>
+  <si>
+    <t>MT276326.1</t>
+  </si>
+  <si>
+    <t>MT276327.1</t>
+  </si>
+  <si>
+    <t>MT276323.1</t>
+  </si>
+  <si>
+    <t>MT276328.1</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>USA: GA</t>
+  </si>
+  <si>
+    <t>USA: IL</t>
+  </si>
+  <si>
+    <t>USA: NC</t>
+  </si>
+  <si>
+    <t>USA: NH</t>
+  </si>
+  <si>
+    <t>USA: North Carolina</t>
+  </si>
+  <si>
+    <t>USA: NY</t>
+  </si>
+  <si>
+    <t>USA: OR</t>
+  </si>
+  <si>
+    <t>USA: RI</t>
+  </si>
+  <si>
+    <t>USA: TX</t>
+  </si>
+  <si>
+    <t>USA: WA</t>
+  </si>
+  <si>
+    <t>MT320538.1</t>
+  </si>
+  <si>
+    <t>MT320891.1</t>
+  </si>
+  <si>
+    <t>MT304474.1</t>
+  </si>
+  <si>
+    <t>MT304475.1</t>
+  </si>
+  <si>
+    <t>MT304476.1</t>
+  </si>
+  <si>
+    <t>MT304479.1</t>
+  </si>
+  <si>
+    <t>MT304480.1</t>
+  </si>
+  <si>
+    <t>MT304481.1</t>
+  </si>
+  <si>
+    <t>MT304482.1</t>
+  </si>
+  <si>
+    <t>MT308702.1</t>
+  </si>
+  <si>
+    <t>MT308703.1</t>
+  </si>
+  <si>
+    <t>MT304484.1</t>
+  </si>
+  <si>
+    <t>MT304485.1</t>
+  </si>
+  <si>
+    <t>MT304486.1</t>
+  </si>
+  <si>
+    <t>MT300186.2</t>
+  </si>
+  <si>
+    <t>MT304487.1</t>
+  </si>
+  <si>
+    <t>MT304488.1</t>
+  </si>
+  <si>
+    <t>MT304490.1</t>
+  </si>
+  <si>
+    <t>MT233526.1</t>
+  </si>
+  <si>
+    <t>MT246450.1</t>
+  </si>
+  <si>
+    <t>MT246452.1</t>
+  </si>
+  <si>
+    <t>MT246457.1</t>
+  </si>
+  <si>
+    <t>MT246464.1</t>
+  </si>
+  <si>
+    <t>MT246467.1</t>
+  </si>
+  <si>
+    <t>MT246471.1</t>
+  </si>
+  <si>
+    <t>MT246476.1</t>
+  </si>
+  <si>
+    <t>MT246478.1</t>
+  </si>
+  <si>
+    <t>MT246480.1</t>
+  </si>
+  <si>
+    <t>MT246488.1</t>
+  </si>
+  <si>
+    <t>MT246667.1</t>
+  </si>
+  <si>
+    <t>MT251977.1</t>
+  </si>
+  <si>
+    <t>MT259235.1</t>
+  </si>
+  <si>
+    <t>MT259239.1</t>
+  </si>
+  <si>
+    <t>MT259241.1</t>
+  </si>
+  <si>
+    <t>MT259243.1</t>
+  </si>
+  <si>
+    <t>MT259246.1</t>
+  </si>
+  <si>
+    <t>MT259249.1</t>
+  </si>
+  <si>
+    <t>MT259252.1</t>
+  </si>
+  <si>
+    <t>MT259253.1</t>
+  </si>
+  <si>
+    <t>MT259254.1</t>
+  </si>
+  <si>
+    <t>MT259256.1</t>
+  </si>
+  <si>
+    <t>MT259264.1</t>
+  </si>
+  <si>
+    <t>MT259266.1</t>
+  </si>
+  <si>
+    <t>MT259267.1</t>
+  </si>
+  <si>
+    <t>MT259271.1</t>
+  </si>
+  <si>
+    <t>MT259282.1</t>
+  </si>
+  <si>
+    <t>MT259286.1</t>
+  </si>
+  <si>
+    <t>MT259287.1</t>
+  </si>
+  <si>
+    <t>MT262896.1</t>
+  </si>
+  <si>
+    <t>MT262897.1</t>
+  </si>
+  <si>
+    <t>MT262898.1</t>
+  </si>
+  <si>
+    <t>MT262899.1</t>
+  </si>
+  <si>
+    <t>MT262900.1</t>
+  </si>
+  <si>
+    <t>MT262901.1</t>
+  </si>
+  <si>
+    <t>MT262902.1</t>
+  </si>
+  <si>
+    <t>MT262903.1</t>
+  </si>
+  <si>
+    <t>MT262904.1</t>
+  </si>
+  <si>
+    <t>MT262905.1</t>
+  </si>
+  <si>
+    <t>MT262906.1</t>
+  </si>
+  <si>
+    <t>MT262907.1</t>
+  </si>
+  <si>
+    <t>MT262908.1</t>
+  </si>
+  <si>
+    <t>MT262909.1</t>
+  </si>
+  <si>
+    <t>MT262910.1</t>
+  </si>
+  <si>
+    <t>MT262911.1</t>
+  </si>
+  <si>
+    <t>MT262912.1</t>
+  </si>
+  <si>
+    <t>MT262913.1</t>
+  </si>
+  <si>
+    <t>MT262914.1</t>
+  </si>
+  <si>
+    <t>MT262915.1</t>
+  </si>
+  <si>
+    <t>MT262916.1</t>
+  </si>
+  <si>
+    <t>MT263392.1</t>
+  </si>
+  <si>
+    <t>MT263394.1</t>
+  </si>
+  <si>
+    <t>MT263399.1</t>
+  </si>
+  <si>
+    <t>MT263406.1</t>
+  </si>
+  <si>
+    <t>MT263408.1</t>
+  </si>
+  <si>
+    <t>MT263410.1</t>
+  </si>
+  <si>
+    <t>MT263411.1</t>
+  </si>
+  <si>
+    <t>MT263414.1</t>
+  </si>
+  <si>
+    <t>MT263415.1</t>
+  </si>
+  <si>
+    <t>MT263416.1</t>
+  </si>
+  <si>
+    <t>MT263424.1</t>
+  </si>
+  <si>
+    <t>MT263425.1</t>
+  </si>
+  <si>
+    <t>MT263434.1</t>
+  </si>
+  <si>
+    <t>MT263435.1</t>
+  </si>
+  <si>
+    <t>MT263437.1</t>
+  </si>
+  <si>
+    <t>MT263438.1</t>
+  </si>
+  <si>
+    <t>MT263440.1</t>
+  </si>
+  <si>
+    <t>MT263447.1</t>
+  </si>
+  <si>
+    <t>MT263457.1</t>
+  </si>
+  <si>
+    <t>MT263462.1</t>
+  </si>
+  <si>
+    <t>MT263463.1</t>
+  </si>
+  <si>
+    <t>MT263464.1</t>
+  </si>
+  <si>
+    <t>MT263469.1</t>
+  </si>
+  <si>
+    <t>MT276325.1</t>
+  </si>
+  <si>
+    <t>MT293159.1</t>
+  </si>
+  <si>
+    <t>MT293162.1</t>
+  </si>
+  <si>
+    <t>MT293163.1</t>
+  </si>
+  <si>
+    <t>MT293171.1</t>
+  </si>
+  <si>
+    <t>MT293176.1</t>
+  </si>
+  <si>
+    <t>MT293178.1</t>
+  </si>
+  <si>
+    <t>MT293181.1</t>
+  </si>
+  <si>
+    <t>MT293183.1</t>
+  </si>
+  <si>
+    <t>MT293186.1</t>
+  </si>
+  <si>
+    <t>MT293188.1</t>
+  </si>
+  <si>
+    <t>MT293189.1</t>
+  </si>
+  <si>
+    <t>MT293190.1</t>
+  </si>
+  <si>
+    <t>MT293191.1</t>
+  </si>
+  <si>
+    <t>MT293192.1</t>
+  </si>
+  <si>
+    <t>MT293195.1</t>
+  </si>
+  <si>
+    <t>MT293197.1</t>
+  </si>
+  <si>
+    <t>MT293199.1</t>
+  </si>
+  <si>
+    <t>MT293201.1</t>
+  </si>
+  <si>
+    <t>MT293202.1</t>
+  </si>
+  <si>
+    <t>MT293204.1</t>
+  </si>
+  <si>
+    <t>MT293205.1</t>
+  </si>
+  <si>
+    <t>MT293206.1</t>
+  </si>
+  <si>
+    <t>MT293210.1</t>
+  </si>
+  <si>
+    <t>MT293219.1</t>
+  </si>
+  <si>
+    <t>MT293220.1</t>
   </si>
 </sst>
 </file>
@@ -472,7 +1082,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -492,11 +1102,349 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -786,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65:L93"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2482,7 +3430,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <f t="shared" ref="A69:A93" si="2">A68+1</f>
+        <f t="shared" ref="A69:A132" si="2">A68+1</f>
         <v>67</v>
       </c>
       <c r="B69" t="s">
@@ -2501,7 +3449,7 @@
         <v>0.38</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G93" si="3">E69-E$3</f>
+        <f t="shared" ref="G69:G108" si="3">E69-E$3</f>
         <v>-21</v>
       </c>
     </row>
@@ -3106,37 +4054,4573 @@
         <v>0</v>
       </c>
     </row>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94" t="s">
+        <v>143</v>
+      </c>
+      <c r="D94" s="9">
+        <v>43853</v>
+      </c>
+      <c r="E94">
+        <v>29781</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" t="s">
+        <v>143</v>
+      </c>
+      <c r="D95" s="9">
+        <v>43853</v>
+      </c>
+      <c r="E95">
+        <v>29781</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>-122</v>
+      </c>
+    </row>
     <row r="96" spans="1:12">
+      <c r="A96">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
       <c r="B96" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" s="9">
+        <v>43853</v>
+      </c>
+      <c r="E96">
+        <v>29781</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" t="s">
+        <v>143</v>
+      </c>
+      <c r="D97" s="9">
+        <v>43854</v>
+      </c>
+      <c r="E97">
+        <v>29781</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="3"/>
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" s="9">
+        <v>43855</v>
+      </c>
+      <c r="E98">
+        <v>29781</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="3"/>
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" t="s">
+        <v>143</v>
+      </c>
+      <c r="D99" s="9">
+        <v>43851</v>
+      </c>
+      <c r="E99">
+        <v>29781</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="3"/>
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100" s="9">
+        <v>43851</v>
+      </c>
+      <c r="E100">
+        <v>29781</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" s="9">
+        <v>43855</v>
+      </c>
+      <c r="E101">
+        <v>29781</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="3"/>
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" t="s">
+        <v>143</v>
+      </c>
+      <c r="D102" s="9">
+        <v>43855</v>
+      </c>
+      <c r="E102">
+        <v>29781</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="3"/>
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" t="s">
+        <v>143</v>
+      </c>
+      <c r="D103" s="9">
+        <v>43852</v>
+      </c>
+      <c r="E103">
+        <v>29781</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="3"/>
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" t="s">
+        <v>143</v>
+      </c>
+      <c r="D104" s="9">
+        <v>43855</v>
+      </c>
+      <c r="E104">
+        <v>29781</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="3"/>
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <f>A104+1</f>
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105" t="s">
+        <v>142</v>
+      </c>
+      <c r="D105" s="4">
+        <v>43851</v>
+      </c>
+      <c r="E105">
+        <v>29781</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="3"/>
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" t="s">
+        <v>142</v>
+      </c>
+      <c r="D106" s="4">
+        <v>43851</v>
+      </c>
+      <c r="E106">
+        <v>29781</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="3"/>
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>141</v>
+      </c>
+      <c r="C107" t="s">
+        <v>142</v>
+      </c>
+      <c r="D107" s="4">
+        <v>43851</v>
+      </c>
+      <c r="E107">
+        <v>29781</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="3"/>
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" t="s">
+        <v>144</v>
+      </c>
+      <c r="D108" s="4">
+        <v>43894</v>
+      </c>
+      <c r="E108">
+        <v>29836</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="3"/>
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
         <v>126</v>
       </c>
+      <c r="C109" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" s="4">
+        <v>43894</v>
+      </c>
+      <c r="E109">
+        <v>29782</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G109">
+        <f>E109-E$3</f>
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" s="8">
+        <v>43850</v>
+      </c>
+      <c r="E110">
+        <v>29899</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0.37940000000000002</v>
+      </c>
+      <c r="G110">
+        <f>E110-E$3</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>162</v>
+      </c>
+      <c r="C111" t="s">
+        <v>163</v>
+      </c>
+      <c r="D111" s="8">
+        <v>43900</v>
+      </c>
+      <c r="E111">
+        <v>29903</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G111">
+        <f>E111-E$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>164</v>
+      </c>
+      <c r="C112" t="s">
+        <v>151</v>
+      </c>
+      <c r="D112" s="8">
+        <v>43854</v>
+      </c>
+      <c r="E112">
+        <v>29872</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G112">
+        <f t="shared" ref="G112:G175" si="4">E112-E$3</f>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>165</v>
+      </c>
+      <c r="C113" t="s">
+        <v>151</v>
+      </c>
+      <c r="D113" s="8">
+        <v>43855</v>
+      </c>
+      <c r="E113">
+        <v>29828</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>166</v>
+      </c>
+      <c r="C114" t="s">
+        <v>151</v>
+      </c>
+      <c r="D114" s="8">
+        <v>43858</v>
+      </c>
+      <c r="E114">
+        <v>29821</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0.38030000000000003</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="4"/>
+        <v>-82</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>167</v>
+      </c>
+      <c r="C115" t="s">
+        <v>151</v>
+      </c>
+      <c r="D115" s="8">
+        <v>43858</v>
+      </c>
+      <c r="E115">
+        <v>29865</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="4"/>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" t="s">
+        <v>151</v>
+      </c>
+      <c r="D116" s="8">
+        <v>43857</v>
+      </c>
+      <c r="E116">
+        <v>29871</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="4"/>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" t="s">
+        <v>151</v>
+      </c>
+      <c r="D117" s="8">
+        <v>43859</v>
+      </c>
+      <c r="E117">
+        <v>29860</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="4"/>
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>170</v>
+      </c>
+      <c r="C118" t="s">
+        <v>152</v>
+      </c>
+      <c r="D118" s="8">
+        <v>43840</v>
+      </c>
+      <c r="E118">
+        <v>29868</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="4"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>171</v>
+      </c>
+      <c r="C119" t="s">
+        <v>152</v>
+      </c>
+      <c r="D119" s="8">
+        <v>43856</v>
+      </c>
+      <c r="E119">
+        <v>29863</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0.38030000000000003</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="4"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>172</v>
+      </c>
+      <c r="C120" t="s">
+        <v>152</v>
+      </c>
+      <c r="D120" s="8">
+        <v>43856</v>
+      </c>
+      <c r="E120">
+        <v>29861</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="4"/>
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>173</v>
+      </c>
+      <c r="C121" t="s">
+        <v>152</v>
+      </c>
+      <c r="D121" s="8">
+        <v>43856</v>
+      </c>
+      <c r="E121">
+        <v>29864</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="4"/>
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>174</v>
+      </c>
+      <c r="C122" t="s">
+        <v>152</v>
+      </c>
+      <c r="D122" s="8">
+        <v>43855</v>
+      </c>
+      <c r="E122">
+        <v>29866</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="4"/>
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>175</v>
+      </c>
+      <c r="C123" t="s">
+        <v>152</v>
+      </c>
+      <c r="D123" s="8">
+        <v>43855</v>
+      </c>
+      <c r="E123">
+        <v>29865</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="4"/>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>176</v>
+      </c>
+      <c r="C124" t="s">
+        <v>153</v>
+      </c>
+      <c r="D124" s="8">
+        <v>43829</v>
+      </c>
+      <c r="E124">
+        <v>29807</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="4"/>
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>177</v>
+      </c>
+      <c r="C125" t="s">
+        <v>153</v>
+      </c>
+      <c r="D125" s="8">
+        <v>43829</v>
+      </c>
+      <c r="E125">
+        <v>29858</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="4"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>178</v>
+      </c>
+      <c r="C126" t="s">
+        <v>153</v>
+      </c>
+      <c r="D126" s="8">
+        <v>43829</v>
+      </c>
+      <c r="E126">
+        <v>29858</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="4"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" t="s">
+        <v>153</v>
+      </c>
+      <c r="D127" s="8">
+        <v>43829</v>
+      </c>
+      <c r="E127">
+        <v>29774</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="4"/>
+        <v>-129</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>180</v>
+      </c>
+      <c r="C128" t="s">
+        <v>153</v>
+      </c>
+      <c r="D128" s="8">
+        <v>43829</v>
+      </c>
+      <c r="E128">
+        <v>29807</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="4"/>
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>181</v>
+      </c>
+      <c r="C129" t="s">
+        <v>147</v>
+      </c>
+      <c r="D129" s="13">
+        <v>43862</v>
+      </c>
+      <c r="E129">
+        <v>29851</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="4"/>
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>182</v>
+      </c>
+      <c r="C130" t="s">
+        <v>147</v>
+      </c>
+      <c r="D130" s="13">
+        <v>43891</v>
+      </c>
+      <c r="E130">
+        <v>29870</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="4"/>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>183</v>
+      </c>
+      <c r="C131" t="s">
+        <v>148</v>
+      </c>
+      <c r="D131" s="8">
+        <v>43875</v>
+      </c>
+      <c r="E131">
+        <v>29878</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="4"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>184</v>
+      </c>
+      <c r="C132" t="s">
+        <v>148</v>
+      </c>
+      <c r="D132" s="8">
+        <v>43899</v>
+      </c>
+      <c r="E132">
+        <v>29874</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="4"/>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <f t="shared" ref="A133:A196" si="5">A132+1</f>
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>185</v>
+      </c>
+      <c r="C133" t="s">
+        <v>154</v>
+      </c>
+      <c r="D133" s="8">
+        <v>43902</v>
+      </c>
+      <c r="E133">
+        <v>29836</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="4"/>
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>186</v>
+      </c>
+      <c r="C134" t="s">
+        <v>149</v>
+      </c>
+      <c r="D134" s="8">
+        <v>43900</v>
+      </c>
+      <c r="E134">
+        <v>29856</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="4"/>
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>187</v>
+      </c>
+      <c r="C135" t="s">
+        <v>150</v>
+      </c>
+      <c r="D135" s="8">
+        <v>43899</v>
+      </c>
+      <c r="E135">
+        <v>29782</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="4"/>
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>188</v>
+      </c>
+      <c r="C136" t="s">
+        <v>150</v>
+      </c>
+      <c r="D136" s="8">
+        <v>43900</v>
+      </c>
+      <c r="E136">
+        <v>29782</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="4"/>
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>189</v>
+      </c>
+      <c r="C137" t="s">
+        <v>150</v>
+      </c>
+      <c r="D137" s="8">
+        <v>43892</v>
+      </c>
+      <c r="E137">
+        <v>29782</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="4"/>
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>190</v>
+      </c>
+      <c r="C138" t="s">
+        <v>150</v>
+      </c>
+      <c r="D138" s="8">
+        <v>43900</v>
+      </c>
+      <c r="E138">
+        <v>29782</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="4"/>
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <f t="shared" si="5"/>
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>191</v>
+      </c>
+      <c r="C139" t="s">
+        <v>78</v>
+      </c>
+      <c r="D139" s="8">
+        <v>43900</v>
+      </c>
+      <c r="E139">
+        <v>29892</v>
+      </c>
+      <c r="F139" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="4"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>192</v>
+      </c>
+      <c r="C140" t="s">
+        <v>78</v>
+      </c>
+      <c r="D140" s="8">
+        <v>43917</v>
+      </c>
+      <c r="E140">
+        <v>29893</v>
+      </c>
+      <c r="F140" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <f t="shared" si="5"/>
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>193</v>
+      </c>
+      <c r="C141" t="s">
+        <v>155</v>
+      </c>
+      <c r="D141" s="8">
+        <v>43908</v>
+      </c>
+      <c r="E141">
+        <v>29892</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="4"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>194</v>
+      </c>
+      <c r="C142" t="s">
+        <v>155</v>
+      </c>
+      <c r="D142" s="8">
+        <v>43887</v>
+      </c>
+      <c r="E142">
+        <v>29882</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>195</v>
+      </c>
+      <c r="C143" t="s">
+        <v>156</v>
+      </c>
+      <c r="D143" s="8">
+        <v>43889</v>
+      </c>
+      <c r="E143">
+        <v>29882</v>
+      </c>
+      <c r="F143" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>196</v>
+      </c>
+      <c r="C144" t="s">
+        <v>156</v>
+      </c>
+      <c r="D144" s="8">
+        <v>43889</v>
+      </c>
+      <c r="E144">
+        <v>29882</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <f t="shared" si="5"/>
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>197</v>
+      </c>
+      <c r="C145" t="s">
+        <v>157</v>
+      </c>
+      <c r="D145" s="8">
+        <v>43890</v>
+      </c>
+      <c r="E145">
+        <v>29882</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>198</v>
+      </c>
+      <c r="C146" t="s">
+        <v>157</v>
+      </c>
+      <c r="D146" s="8">
+        <v>43890</v>
+      </c>
+      <c r="E146">
+        <v>29882</v>
+      </c>
+      <c r="F146" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>199</v>
+      </c>
+      <c r="C147" t="s">
+        <v>159</v>
+      </c>
+      <c r="D147" s="8">
+        <v>43889</v>
+      </c>
+      <c r="E147">
+        <v>29882</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <f t="shared" si="5"/>
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>200</v>
+      </c>
+      <c r="C148" t="s">
+        <v>158</v>
+      </c>
+      <c r="D148" s="8">
+        <v>43888</v>
+      </c>
+      <c r="E148">
+        <v>29882</v>
+      </c>
+      <c r="F148" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <f t="shared" si="5"/>
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>213</v>
+      </c>
+      <c r="C149" t="s">
+        <v>201</v>
+      </c>
+      <c r="D149" s="13">
+        <v>43891</v>
+      </c>
+      <c r="E149">
+        <v>29679</v>
+      </c>
+      <c r="F149" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="4"/>
+        <v>-224</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>214</v>
+      </c>
+      <c r="C150" t="s">
+        <v>202</v>
+      </c>
+      <c r="D150" s="8">
+        <v>43899</v>
+      </c>
+      <c r="E150">
+        <v>29828</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="4"/>
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <f t="shared" si="5"/>
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>215</v>
+      </c>
+      <c r="C151" t="s">
+        <v>160</v>
+      </c>
+      <c r="D151" s="8">
+        <v>43888</v>
+      </c>
+      <c r="E151">
+        <v>29882</v>
+      </c>
+      <c r="F151" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>216</v>
+      </c>
+      <c r="C152" t="s">
+        <v>160</v>
+      </c>
+      <c r="D152" s="8">
+        <v>43890</v>
+      </c>
+      <c r="E152">
+        <v>29882</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <f t="shared" si="5"/>
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>217</v>
+      </c>
+      <c r="C153" t="s">
+        <v>160</v>
+      </c>
+      <c r="D153" s="8">
+        <v>43890</v>
+      </c>
+      <c r="E153">
+        <v>29882</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>218</v>
+      </c>
+      <c r="C154" t="s">
+        <v>203</v>
+      </c>
+      <c r="D154" s="8">
+        <v>43893</v>
+      </c>
+      <c r="E154">
+        <v>29882</v>
+      </c>
+      <c r="F154" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>219</v>
+      </c>
+      <c r="C155" t="s">
+        <v>203</v>
+      </c>
+      <c r="D155" s="8">
+        <v>43893</v>
+      </c>
+      <c r="E155">
+        <v>29882</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <f t="shared" si="5"/>
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>220</v>
+      </c>
+      <c r="C156" t="s">
+        <v>203</v>
+      </c>
+      <c r="D156" s="8">
+        <v>43894</v>
+      </c>
+      <c r="E156">
+        <v>29882</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>221</v>
+      </c>
+      <c r="C157" t="s">
+        <v>204</v>
+      </c>
+      <c r="D157" s="8">
+        <v>43891</v>
+      </c>
+      <c r="E157">
+        <v>29882</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>222</v>
+      </c>
+      <c r="C158" t="s">
+        <v>205</v>
+      </c>
+      <c r="D158" s="13">
+        <v>43922</v>
+      </c>
+      <c r="E158">
+        <v>29834</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="4"/>
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <f t="shared" si="5"/>
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>223</v>
+      </c>
+      <c r="C159" t="s">
+        <v>205</v>
+      </c>
+      <c r="D159" s="13">
+        <v>43922</v>
+      </c>
+      <c r="E159">
+        <v>29834</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="4"/>
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>224</v>
+      </c>
+      <c r="C160" t="s">
+        <v>206</v>
+      </c>
+      <c r="D160" s="8">
+        <v>43890</v>
+      </c>
+      <c r="E160">
+        <v>29882</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>225</v>
+      </c>
+      <c r="C161" t="s">
+        <v>206</v>
+      </c>
+      <c r="D161" s="8">
+        <v>43892</v>
+      </c>
+      <c r="E161">
+        <v>29882</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>226</v>
+      </c>
+      <c r="C162" t="s">
+        <v>208</v>
+      </c>
+      <c r="D162" s="8">
+        <v>43892</v>
+      </c>
+      <c r="E162">
+        <v>29882</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>227</v>
+      </c>
+      <c r="C163" t="s">
+        <v>207</v>
+      </c>
+      <c r="D163" s="8">
+        <v>43923</v>
+      </c>
+      <c r="E163">
+        <v>29834</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="4"/>
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>228</v>
+      </c>
+      <c r="C164" t="s">
+        <v>209</v>
+      </c>
+      <c r="D164" s="8">
+        <v>43891</v>
+      </c>
+      <c r="E164">
+        <v>29882</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>229</v>
+      </c>
+      <c r="C165" t="s">
+        <v>210</v>
+      </c>
+      <c r="D165" s="8">
+        <v>43891</v>
+      </c>
+      <c r="E165">
+        <v>29882</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <f t="shared" si="5"/>
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>230</v>
+      </c>
+      <c r="C166" t="s">
+        <v>211</v>
+      </c>
+      <c r="D166" s="8">
+        <v>43891</v>
+      </c>
+      <c r="E166">
+        <v>29882</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="4"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>231</v>
+      </c>
+      <c r="C167" t="s">
+        <v>212</v>
+      </c>
+      <c r="D167" s="8">
+        <v>43849</v>
+      </c>
+      <c r="E167">
+        <v>29847</v>
+      </c>
+      <c r="F167" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="4"/>
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>232</v>
+      </c>
+      <c r="C168" t="s">
+        <v>212</v>
+      </c>
+      <c r="D168" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E168">
+        <v>29872</v>
+      </c>
+      <c r="F168" s="1">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="4"/>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>233</v>
+      </c>
+      <c r="C169" t="s">
+        <v>212</v>
+      </c>
+      <c r="D169" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E169">
+        <v>29888</v>
+      </c>
+      <c r="F169" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="4"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>234</v>
+      </c>
+      <c r="C170" t="s">
+        <v>212</v>
+      </c>
+      <c r="D170" s="8">
+        <v>43902</v>
+      </c>
+      <c r="E170">
+        <v>29843</v>
+      </c>
+      <c r="F170" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="4"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>235</v>
+      </c>
+      <c r="C171" t="s">
+        <v>212</v>
+      </c>
+      <c r="D171" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E171">
+        <v>29818</v>
+      </c>
+      <c r="F171" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="4"/>
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>236</v>
+      </c>
+      <c r="C172" t="s">
+        <v>212</v>
+      </c>
+      <c r="D172" s="8">
+        <v>43904</v>
+      </c>
+      <c r="E172">
+        <v>29899</v>
+      </c>
+      <c r="F172" s="1">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <f t="shared" si="5"/>
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>237</v>
+      </c>
+      <c r="C173" t="s">
+        <v>212</v>
+      </c>
+      <c r="D173" s="8">
+        <v>43904</v>
+      </c>
+      <c r="E173">
+        <v>29871</v>
+      </c>
+      <c r="F173" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="4"/>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <f t="shared" si="5"/>
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>238</v>
+      </c>
+      <c r="C174" t="s">
+        <v>212</v>
+      </c>
+      <c r="D174" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E174">
+        <v>29863</v>
+      </c>
+      <c r="F174" s="1">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="4"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <f t="shared" si="5"/>
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>239</v>
+      </c>
+      <c r="C175" t="s">
+        <v>212</v>
+      </c>
+      <c r="D175" s="8">
+        <v>43904</v>
+      </c>
+      <c r="E175">
+        <v>29889</v>
+      </c>
+      <c r="F175" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="4"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <f t="shared" si="5"/>
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>240</v>
+      </c>
+      <c r="C176" t="s">
+        <v>212</v>
+      </c>
+      <c r="D176" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E176">
+        <v>29904</v>
+      </c>
+      <c r="F176" s="1">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="G176">
+        <f t="shared" ref="G176:G240" si="6">E176-E$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <f t="shared" si="5"/>
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>241</v>
+      </c>
+      <c r="C177" t="s">
+        <v>212</v>
+      </c>
+      <c r="D177" s="8">
+        <v>43904</v>
+      </c>
+      <c r="E177">
+        <v>29842</v>
+      </c>
+      <c r="F177" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="6"/>
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <f t="shared" si="5"/>
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>242</v>
+      </c>
+      <c r="C178" t="s">
+        <v>212</v>
+      </c>
+      <c r="D178" s="8">
+        <v>43849</v>
+      </c>
+      <c r="E178">
+        <v>29867</v>
+      </c>
+      <c r="F178" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="6"/>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <f t="shared" si="5"/>
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>243</v>
+      </c>
+      <c r="C179" t="s">
+        <v>212</v>
+      </c>
+      <c r="D179" s="8">
+        <v>43904</v>
+      </c>
+      <c r="E179">
+        <v>29829</v>
+      </c>
+      <c r="F179" s="1">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="6"/>
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <f t="shared" si="5"/>
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>244</v>
+      </c>
+      <c r="C180" t="s">
+        <v>212</v>
+      </c>
+      <c r="D180" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E180">
+        <v>29751</v>
+      </c>
+      <c r="F180" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="6"/>
+        <v>-152</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <f t="shared" si="5"/>
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>245</v>
+      </c>
+      <c r="C181" t="s">
+        <v>212</v>
+      </c>
+      <c r="D181" s="8">
+        <v>43906</v>
+      </c>
+      <c r="E181">
+        <v>29583</v>
+      </c>
+      <c r="F181" s="1">
+        <v>0.3795</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="6"/>
+        <v>-320</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>246</v>
+      </c>
+      <c r="C182" t="s">
+        <v>212</v>
+      </c>
+      <c r="D182" s="8">
+        <v>43906</v>
+      </c>
+      <c r="E182">
+        <v>29682</v>
+      </c>
+      <c r="F182" s="1">
+        <v>0.37930000000000003</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="6"/>
+        <v>-221</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <f t="shared" si="5"/>
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>247</v>
+      </c>
+      <c r="C183" t="s">
+        <v>212</v>
+      </c>
+      <c r="D183" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E183">
+        <v>29757</v>
+      </c>
+      <c r="F183" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="6"/>
+        <v>-146</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <f t="shared" si="5"/>
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>248</v>
+      </c>
+      <c r="C184" t="s">
+        <v>212</v>
+      </c>
+      <c r="D184" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E184">
+        <v>29842</v>
+      </c>
+      <c r="F184" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="6"/>
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <f t="shared" si="5"/>
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>249</v>
+      </c>
+      <c r="C185" t="s">
+        <v>212</v>
+      </c>
+      <c r="D185" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E185">
+        <v>29821</v>
+      </c>
+      <c r="F185" s="1">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="6"/>
+        <v>-82</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <f t="shared" si="5"/>
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>250</v>
+      </c>
+      <c r="C186" t="s">
+        <v>212</v>
+      </c>
+      <c r="D186" s="8">
+        <v>43904</v>
+      </c>
+      <c r="E186">
+        <v>29790</v>
+      </c>
+      <c r="F186" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="6"/>
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <f t="shared" si="5"/>
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>251</v>
+      </c>
+      <c r="C187" t="s">
+        <v>212</v>
+      </c>
+      <c r="D187" s="8">
+        <v>43906</v>
+      </c>
+      <c r="E187">
+        <v>29813</v>
+      </c>
+      <c r="F187" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="6"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <f t="shared" si="5"/>
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>252</v>
+      </c>
+      <c r="C188" t="s">
+        <v>212</v>
+      </c>
+      <c r="D188" s="8">
+        <v>43906</v>
+      </c>
+      <c r="E188">
+        <v>29887</v>
+      </c>
+      <c r="F188" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="6"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <f t="shared" si="5"/>
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>253</v>
+      </c>
+      <c r="C189" t="s">
+        <v>212</v>
+      </c>
+      <c r="D189" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E189">
+        <v>29833</v>
+      </c>
+      <c r="F189" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="6"/>
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <f t="shared" si="5"/>
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>254</v>
+      </c>
+      <c r="C190" t="s">
+        <v>212</v>
+      </c>
+      <c r="D190" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E190">
+        <v>29836</v>
+      </c>
+      <c r="F190" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="6"/>
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <f t="shared" si="5"/>
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>255</v>
+      </c>
+      <c r="C191" t="s">
+        <v>212</v>
+      </c>
+      <c r="D191" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E191">
+        <v>29776</v>
+      </c>
+      <c r="F191" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="6"/>
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>256</v>
+      </c>
+      <c r="C192" t="s">
+        <v>212</v>
+      </c>
+      <c r="D192" s="8">
+        <v>43904</v>
+      </c>
+      <c r="E192">
+        <v>29852</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="6"/>
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <f t="shared" si="5"/>
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>257</v>
+      </c>
+      <c r="C193" t="s">
+        <v>212</v>
+      </c>
+      <c r="D193" s="8">
+        <v>43905</v>
+      </c>
+      <c r="E193">
+        <v>29864</v>
+      </c>
+      <c r="F193" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="6"/>
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <f t="shared" si="5"/>
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>258</v>
+      </c>
+      <c r="C194" t="s">
+        <v>212</v>
+      </c>
+      <c r="D194" s="8">
+        <v>43905</v>
+      </c>
+      <c r="E194">
+        <v>29815</v>
+      </c>
+      <c r="F194" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="6"/>
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <f t="shared" si="5"/>
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>259</v>
+      </c>
+      <c r="C195" t="s">
+        <v>212</v>
+      </c>
+      <c r="D195" s="8">
+        <v>43905</v>
+      </c>
+      <c r="E195">
+        <v>29857</v>
+      </c>
+      <c r="F195" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="6"/>
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <f t="shared" si="5"/>
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>260</v>
+      </c>
+      <c r="C196" t="s">
+        <v>212</v>
+      </c>
+      <c r="D196" s="8">
+        <v>43905</v>
+      </c>
+      <c r="E196">
+        <v>29688</v>
+      </c>
+      <c r="F196" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="6"/>
+        <v>-215</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <f>A196+1</f>
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>261</v>
+      </c>
+      <c r="C197" t="s">
+        <v>212</v>
+      </c>
+      <c r="D197" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E197">
+        <v>29882</v>
+      </c>
+      <c r="F197" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <f>A197+1</f>
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>262</v>
+      </c>
+      <c r="C198" t="s">
+        <v>212</v>
+      </c>
+      <c r="D198" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E198">
+        <v>29882</v>
+      </c>
+      <c r="F198" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <f>A198+1</f>
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>263</v>
+      </c>
+      <c r="C199" t="s">
+        <v>212</v>
+      </c>
+      <c r="D199" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E199">
+        <v>29882</v>
+      </c>
+      <c r="F199" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <f>A199+1</f>
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>264</v>
+      </c>
+      <c r="C200" t="s">
+        <v>212</v>
+      </c>
+      <c r="D200" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E200">
+        <v>29882</v>
+      </c>
+      <c r="F200" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <f t="shared" ref="A201:A265" si="7">A200+1</f>
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>265</v>
+      </c>
+      <c r="C201" t="s">
+        <v>212</v>
+      </c>
+      <c r="D201" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E201">
+        <v>29882</v>
+      </c>
+      <c r="F201" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>266</v>
+      </c>
+      <c r="C202" t="s">
+        <v>212</v>
+      </c>
+      <c r="D202" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E202">
+        <v>29882</v>
+      </c>
+      <c r="F202" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203">
+        <f t="shared" si="7"/>
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>267</v>
+      </c>
+      <c r="C203" t="s">
+        <v>212</v>
+      </c>
+      <c r="D203" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E203">
+        <v>29882</v>
+      </c>
+      <c r="F203" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204">
+        <f t="shared" si="7"/>
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>268</v>
+      </c>
+      <c r="C204" t="s">
+        <v>212</v>
+      </c>
+      <c r="D204" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E204">
+        <v>29882</v>
+      </c>
+      <c r="F204" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205">
+        <f t="shared" si="7"/>
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>269</v>
+      </c>
+      <c r="C205" t="s">
+        <v>212</v>
+      </c>
+      <c r="D205" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E205">
+        <v>29882</v>
+      </c>
+      <c r="F205" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206">
+        <f t="shared" si="7"/>
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>270</v>
+      </c>
+      <c r="C206" t="s">
+        <v>212</v>
+      </c>
+      <c r="D206" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E206">
+        <v>29882</v>
+      </c>
+      <c r="F206" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207">
+        <f t="shared" si="7"/>
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>271</v>
+      </c>
+      <c r="C207" t="s">
+        <v>212</v>
+      </c>
+      <c r="D207" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E207">
+        <v>29882</v>
+      </c>
+      <c r="F207" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208">
+        <f t="shared" si="7"/>
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>272</v>
+      </c>
+      <c r="C208" t="s">
+        <v>212</v>
+      </c>
+      <c r="D208" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E208">
+        <v>29882</v>
+      </c>
+      <c r="F208" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>273</v>
+      </c>
+      <c r="C209" t="s">
+        <v>212</v>
+      </c>
+      <c r="D209" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E209">
+        <v>29882</v>
+      </c>
+      <c r="F209" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>274</v>
+      </c>
+      <c r="C210" t="s">
+        <v>212</v>
+      </c>
+      <c r="D210" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E210">
+        <v>29882</v>
+      </c>
+      <c r="F210" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211">
+        <f t="shared" si="7"/>
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>275</v>
+      </c>
+      <c r="C211" t="s">
+        <v>212</v>
+      </c>
+      <c r="D211" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E211">
+        <v>29882</v>
+      </c>
+      <c r="F211" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>276</v>
+      </c>
+      <c r="C212" t="s">
+        <v>212</v>
+      </c>
+      <c r="D212" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E212">
+        <v>29882</v>
+      </c>
+      <c r="F212" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213">
+        <f t="shared" si="7"/>
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>277</v>
+      </c>
+      <c r="C213" t="s">
+        <v>212</v>
+      </c>
+      <c r="D213" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E213">
+        <v>29882</v>
+      </c>
+      <c r="F213" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214">
+        <f t="shared" si="7"/>
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>278</v>
+      </c>
+      <c r="C214" t="s">
+        <v>212</v>
+      </c>
+      <c r="D214" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E214">
+        <v>29882</v>
+      </c>
+      <c r="F214" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215">
+        <f t="shared" si="7"/>
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>279</v>
+      </c>
+      <c r="C215" t="s">
+        <v>212</v>
+      </c>
+      <c r="D215" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E215">
+        <v>29882</v>
+      </c>
+      <c r="F215" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
+        <f t="shared" si="7"/>
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>280</v>
+      </c>
+      <c r="C216" t="s">
+        <v>212</v>
+      </c>
+      <c r="D216" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E216">
+        <v>29882</v>
+      </c>
+      <c r="F216" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <f t="shared" si="7"/>
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>281</v>
+      </c>
+      <c r="C217" t="s">
+        <v>212</v>
+      </c>
+      <c r="D217" s="8">
+        <v>43903</v>
+      </c>
+      <c r="E217">
+        <v>29882</v>
+      </c>
+      <c r="F217" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218">
+        <f t="shared" si="7"/>
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>282</v>
+      </c>
+      <c r="C218" t="s">
+        <v>212</v>
+      </c>
+      <c r="D218" s="8">
+        <v>43914</v>
+      </c>
+      <c r="E218">
+        <v>29843</v>
+      </c>
+      <c r="F218" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="6"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219">
+        <f t="shared" si="7"/>
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>283</v>
+      </c>
+      <c r="C219" t="s">
+        <v>212</v>
+      </c>
+      <c r="D219" s="8">
+        <v>43912</v>
+      </c>
+      <c r="E219">
+        <v>29697</v>
+      </c>
+      <c r="F219" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="6"/>
+        <v>-206</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220">
+        <f t="shared" si="7"/>
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>284</v>
+      </c>
+      <c r="C220" t="s">
+        <v>212</v>
+      </c>
+      <c r="D220" s="8">
+        <v>43914</v>
+      </c>
+      <c r="E220">
+        <v>29886</v>
+      </c>
+      <c r="F220" s="1">
+        <v>0.3795</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="6"/>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221">
+        <f t="shared" si="7"/>
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>285</v>
+      </c>
+      <c r="C221" t="s">
+        <v>212</v>
+      </c>
+      <c r="D221" s="8">
+        <v>43911</v>
+      </c>
+      <c r="E221">
+        <v>29887</v>
+      </c>
+      <c r="F221" s="1">
+        <v>0.37940000000000002</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="6"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222">
+        <f t="shared" si="7"/>
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>286</v>
+      </c>
+      <c r="C222" t="s">
+        <v>212</v>
+      </c>
+      <c r="D222" s="8">
+        <v>43914</v>
+      </c>
+      <c r="E222">
+        <v>29810</v>
+      </c>
+      <c r="F222" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="6"/>
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223">
+        <f t="shared" si="7"/>
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>287</v>
+      </c>
+      <c r="C223" t="s">
+        <v>212</v>
+      </c>
+      <c r="D223" s="8">
+        <v>43914</v>
+      </c>
+      <c r="E223">
+        <v>29871</v>
+      </c>
+      <c r="F223" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="6"/>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224">
+        <f t="shared" si="7"/>
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>288</v>
+      </c>
+      <c r="C224" t="s">
+        <v>212</v>
+      </c>
+      <c r="D224" s="8">
+        <v>43914</v>
+      </c>
+      <c r="E224">
+        <v>29866</v>
+      </c>
+      <c r="F224" s="1">
+        <v>0.37940000000000002</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="6"/>
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225">
+        <f t="shared" si="7"/>
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>289</v>
+      </c>
+      <c r="C225" t="s">
+        <v>212</v>
+      </c>
+      <c r="D225" s="8">
+        <v>43914</v>
+      </c>
+      <c r="E225">
+        <v>29830</v>
+      </c>
+      <c r="F225" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="6"/>
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226">
+        <f t="shared" si="7"/>
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>290</v>
+      </c>
+      <c r="C226" t="s">
+        <v>212</v>
+      </c>
+      <c r="D226" s="8">
+        <v>43914</v>
+      </c>
+      <c r="E226">
+        <v>29840</v>
+      </c>
+      <c r="F226" s="1">
+        <v>0.3795</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="6"/>
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>291</v>
+      </c>
+      <c r="C227" t="s">
+        <v>212</v>
+      </c>
+      <c r="D227" s="8">
+        <v>43911</v>
+      </c>
+      <c r="E227">
+        <v>29815</v>
+      </c>
+      <c r="F227" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="6"/>
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228">
+        <f t="shared" si="7"/>
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>292</v>
+      </c>
+      <c r="C228" t="s">
+        <v>212</v>
+      </c>
+      <c r="D228" s="8">
+        <v>43914</v>
+      </c>
+      <c r="E228">
+        <v>29830</v>
+      </c>
+      <c r="F228" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="6"/>
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229">
+        <f t="shared" si="7"/>
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>293</v>
+      </c>
+      <c r="C229" t="s">
+        <v>212</v>
+      </c>
+      <c r="D229" s="8">
+        <v>43914</v>
+      </c>
+      <c r="E229">
+        <v>29841</v>
+      </c>
+      <c r="F229" s="1">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="6"/>
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230">
+        <f t="shared" si="7"/>
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>294</v>
+      </c>
+      <c r="C230" t="s">
+        <v>212</v>
+      </c>
+      <c r="D230" s="8">
+        <v>43914</v>
+      </c>
+      <c r="E230">
+        <v>29790</v>
+      </c>
+      <c r="F230" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G230">
+        <f t="shared" si="6"/>
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231">
+        <f t="shared" si="7"/>
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>295</v>
+      </c>
+      <c r="C231" t="s">
+        <v>212</v>
+      </c>
+      <c r="D231" s="8">
+        <v>43914</v>
+      </c>
+      <c r="E231">
+        <v>29882</v>
+      </c>
+      <c r="F231" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232">
+        <f t="shared" si="7"/>
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>296</v>
+      </c>
+      <c r="C232" t="s">
+        <v>212</v>
+      </c>
+      <c r="D232" s="8">
+        <v>43914</v>
+      </c>
+      <c r="E232">
+        <v>29871</v>
+      </c>
+      <c r="F232" s="1">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="6"/>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233">
+        <f t="shared" si="7"/>
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>297</v>
+      </c>
+      <c r="C233" t="s">
+        <v>212</v>
+      </c>
+      <c r="D233" s="8">
+        <v>43914</v>
+      </c>
+      <c r="E233">
+        <v>29872</v>
+      </c>
+      <c r="F233" s="1">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="6"/>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234">
+        <f t="shared" si="7"/>
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>298</v>
+      </c>
+      <c r="C234" t="s">
+        <v>212</v>
+      </c>
+      <c r="D234" s="8">
+        <v>43914</v>
+      </c>
+      <c r="E234">
+        <v>29863</v>
+      </c>
+      <c r="F234" s="1">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="6"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235">
+        <f t="shared" si="7"/>
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>299</v>
+      </c>
+      <c r="C235" t="s">
+        <v>212</v>
+      </c>
+      <c r="D235" s="8">
+        <v>43904</v>
+      </c>
+      <c r="E235">
+        <v>29868</v>
+      </c>
+      <c r="F235" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="6"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236">
+        <f t="shared" si="7"/>
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>300</v>
+      </c>
+      <c r="C236" t="s">
+        <v>212</v>
+      </c>
+      <c r="D236" s="8">
+        <v>43914</v>
+      </c>
+      <c r="E236">
+        <v>29801</v>
+      </c>
+      <c r="F236" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="6"/>
+        <v>-102</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237">
+        <f t="shared" si="7"/>
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>301</v>
+      </c>
+      <c r="C237" t="s">
+        <v>212</v>
+      </c>
+      <c r="D237" s="8">
+        <v>43913</v>
+      </c>
+      <c r="E237">
+        <v>29764</v>
+      </c>
+      <c r="F237" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="6"/>
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238">
+        <f t="shared" si="7"/>
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>302</v>
+      </c>
+      <c r="C238" t="s">
+        <v>212</v>
+      </c>
+      <c r="D238" s="8">
+        <v>43913</v>
+      </c>
+      <c r="E238">
+        <v>29868</v>
+      </c>
+      <c r="F238" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G238">
+        <f t="shared" si="6"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239">
+        <f t="shared" si="7"/>
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>303</v>
+      </c>
+      <c r="C239" t="s">
+        <v>212</v>
+      </c>
+      <c r="D239" s="8">
+        <v>43913</v>
+      </c>
+      <c r="E239">
+        <v>29832</v>
+      </c>
+      <c r="F239" s="1">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="G239">
+        <f t="shared" si="6"/>
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240">
+        <f t="shared" si="7"/>
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>304</v>
+      </c>
+      <c r="C240" t="s">
+        <v>212</v>
+      </c>
+      <c r="D240" s="8">
+        <v>43913</v>
+      </c>
+      <c r="E240">
+        <v>29857</v>
+      </c>
+      <c r="F240" s="1">
+        <v>0.37940000000000002</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="6"/>
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241">
+        <f t="shared" si="7"/>
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>305</v>
+      </c>
+      <c r="C241" t="s">
+        <v>212</v>
+      </c>
+      <c r="D241" s="8">
+        <v>43888</v>
+      </c>
+      <c r="E241">
+        <v>29882</v>
+      </c>
+      <c r="F241" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G241">
+        <f t="shared" ref="G241:G266" si="8">E241-E$3</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>306</v>
+      </c>
+      <c r="C242" t="s">
+        <v>212</v>
+      </c>
+      <c r="D242" s="8">
+        <v>43919</v>
+      </c>
+      <c r="E242">
+        <v>29890</v>
+      </c>
+      <c r="F242" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G242">
+        <f t="shared" si="8"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243">
+        <f t="shared" si="7"/>
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>307</v>
+      </c>
+      <c r="C243" t="s">
+        <v>212</v>
+      </c>
+      <c r="D243" s="8">
+        <v>43919</v>
+      </c>
+      <c r="E243">
+        <v>29848</v>
+      </c>
+      <c r="F243" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G243">
+        <f t="shared" si="8"/>
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244">
+        <f t="shared" si="7"/>
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>308</v>
+      </c>
+      <c r="C244" t="s">
+        <v>212</v>
+      </c>
+      <c r="D244" s="8">
+        <v>43919</v>
+      </c>
+      <c r="E244">
+        <v>29596</v>
+      </c>
+      <c r="F244" s="1">
+        <v>0.3795</v>
+      </c>
+      <c r="G244">
+        <f t="shared" si="8"/>
+        <v>-307</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245">
+        <f t="shared" si="7"/>
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>309</v>
+      </c>
+      <c r="C245" t="s">
+        <v>212</v>
+      </c>
+      <c r="D245" s="8">
+        <v>43920</v>
+      </c>
+      <c r="E245">
+        <v>29848</v>
+      </c>
+      <c r="F245" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G245">
+        <f t="shared" si="8"/>
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246">
+        <f t="shared" si="7"/>
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>310</v>
+      </c>
+      <c r="C246" t="s">
+        <v>212</v>
+      </c>
+      <c r="D246" s="8">
+        <v>43918</v>
+      </c>
+      <c r="E246">
+        <v>29883</v>
+      </c>
+      <c r="F246" s="1">
+        <v>0.37940000000000002</v>
+      </c>
+      <c r="G246">
+        <f t="shared" si="8"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247">
+        <f t="shared" si="7"/>
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>311</v>
+      </c>
+      <c r="C247" t="s">
+        <v>212</v>
+      </c>
+      <c r="D247" s="8">
+        <v>43916</v>
+      </c>
+      <c r="E247">
+        <v>29868</v>
+      </c>
+      <c r="F247" s="1">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="G247">
+        <f t="shared" si="8"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248">
+        <f t="shared" si="7"/>
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>312</v>
+      </c>
+      <c r="C248" t="s">
+        <v>212</v>
+      </c>
+      <c r="D248" s="8">
+        <v>43916</v>
+      </c>
+      <c r="E248">
+        <v>29871</v>
+      </c>
+      <c r="F248" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G248">
+        <f t="shared" si="8"/>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249">
+        <f t="shared" si="7"/>
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>313</v>
+      </c>
+      <c r="C249" t="s">
+        <v>212</v>
+      </c>
+      <c r="D249" s="8">
+        <v>43916</v>
+      </c>
+      <c r="E249">
+        <v>29871</v>
+      </c>
+      <c r="F249" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G249">
+        <f t="shared" si="8"/>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250">
+        <f t="shared" si="7"/>
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>314</v>
+      </c>
+      <c r="C250" t="s">
+        <v>212</v>
+      </c>
+      <c r="D250" s="8">
+        <v>43916</v>
+      </c>
+      <c r="E250">
+        <v>29865</v>
+      </c>
+      <c r="F250" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G250">
+        <f t="shared" si="8"/>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251">
+        <f t="shared" si="7"/>
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>315</v>
+      </c>
+      <c r="C251" t="s">
+        <v>212</v>
+      </c>
+      <c r="D251" s="8">
+        <v>43918</v>
+      </c>
+      <c r="E251">
+        <v>29778</v>
+      </c>
+      <c r="F251" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="G251">
+        <f t="shared" si="8"/>
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>316</v>
+      </c>
+      <c r="C252" t="s">
+        <v>212</v>
+      </c>
+      <c r="D252" s="8">
+        <v>43916</v>
+      </c>
+      <c r="E252">
+        <v>29863</v>
+      </c>
+      <c r="F252" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G252">
+        <f t="shared" si="8"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253">
+        <f t="shared" si="7"/>
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>317</v>
+      </c>
+      <c r="C253" t="s">
+        <v>212</v>
+      </c>
+      <c r="D253" s="8">
+        <v>43916</v>
+      </c>
+      <c r="E253">
+        <v>29829</v>
+      </c>
+      <c r="F253" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G253">
+        <f t="shared" si="8"/>
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254">
+        <f t="shared" si="7"/>
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>318</v>
+      </c>
+      <c r="C254" t="s">
+        <v>212</v>
+      </c>
+      <c r="D254" s="8">
+        <v>43916</v>
+      </c>
+      <c r="E254">
+        <v>29711</v>
+      </c>
+      <c r="F254" s="1">
+        <v>0.37940000000000002</v>
+      </c>
+      <c r="G254">
+        <f t="shared" si="8"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>319</v>
+      </c>
+      <c r="C255" t="s">
+        <v>212</v>
+      </c>
+      <c r="D255" s="8">
+        <v>43918</v>
+      </c>
+      <c r="E255">
+        <v>29868</v>
+      </c>
+      <c r="F255" s="1">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="G255">
+        <f t="shared" si="8"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256">
+        <f t="shared" si="7"/>
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>320</v>
+      </c>
+      <c r="C256" t="s">
+        <v>212</v>
+      </c>
+      <c r="D256" s="8">
+        <v>43918</v>
+      </c>
+      <c r="E256">
+        <v>29871</v>
+      </c>
+      <c r="F256" s="1">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="G256">
+        <f t="shared" si="8"/>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>321</v>
+      </c>
+      <c r="C257" t="s">
+        <v>212</v>
+      </c>
+      <c r="D257" s="8">
+        <v>43920</v>
+      </c>
+      <c r="E257">
+        <v>29619</v>
+      </c>
+      <c r="F257" s="1">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="G257">
+        <f t="shared" si="8"/>
+        <v>-284</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258">
+        <f t="shared" si="7"/>
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>322</v>
+      </c>
+      <c r="C258" t="s">
+        <v>212</v>
+      </c>
+      <c r="D258" s="8">
+        <v>43920</v>
+      </c>
+      <c r="E258">
+        <v>29671</v>
+      </c>
+      <c r="F258" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G258">
+        <f t="shared" si="8"/>
+        <v>-232</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259">
+        <f t="shared" si="7"/>
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>323</v>
+      </c>
+      <c r="C259" t="s">
+        <v>212</v>
+      </c>
+      <c r="D259" s="8">
+        <v>43920</v>
+      </c>
+      <c r="E259">
+        <v>29846</v>
+      </c>
+      <c r="F259" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G259">
+        <f t="shared" si="8"/>
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260">
+        <f t="shared" si="7"/>
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>324</v>
+      </c>
+      <c r="C260" t="s">
+        <v>212</v>
+      </c>
+      <c r="D260" s="8">
+        <v>43920</v>
+      </c>
+      <c r="E260">
+        <v>29874</v>
+      </c>
+      <c r="F260" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G260">
+        <f t="shared" si="8"/>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261">
+        <f t="shared" si="7"/>
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>325</v>
+      </c>
+      <c r="C261" t="s">
+        <v>212</v>
+      </c>
+      <c r="D261" s="8">
+        <v>43920</v>
+      </c>
+      <c r="E261">
+        <v>29896</v>
+      </c>
+      <c r="F261" s="1">
+        <v>0.3795</v>
+      </c>
+      <c r="G261">
+        <f t="shared" si="8"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262">
+        <f t="shared" si="7"/>
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>326</v>
+      </c>
+      <c r="C262" t="s">
+        <v>212</v>
+      </c>
+      <c r="D262" s="8">
+        <v>43920</v>
+      </c>
+      <c r="E262">
+        <v>29833</v>
+      </c>
+      <c r="F262" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G262">
+        <f t="shared" si="8"/>
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263">
+        <f t="shared" si="7"/>
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>327</v>
+      </c>
+      <c r="C263" t="s">
+        <v>212</v>
+      </c>
+      <c r="D263" s="8">
+        <v>43920</v>
+      </c>
+      <c r="E263">
+        <v>29668</v>
+      </c>
+      <c r="F263" s="1">
+        <v>0.37880000000000003</v>
+      </c>
+      <c r="G263">
+        <f t="shared" si="8"/>
+        <v>-235</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264">
+        <f t="shared" si="7"/>
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>328</v>
+      </c>
+      <c r="C264" t="s">
+        <v>212</v>
+      </c>
+      <c r="D264" s="8">
+        <v>43919</v>
+      </c>
+      <c r="E264">
+        <v>29871</v>
+      </c>
+      <c r="F264" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G264">
+        <f t="shared" si="8"/>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265">
+        <f t="shared" si="7"/>
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>329</v>
+      </c>
+      <c r="C265" t="s">
+        <v>212</v>
+      </c>
+      <c r="D265" s="8">
+        <v>43919</v>
+      </c>
+      <c r="E265">
+        <v>29885</v>
+      </c>
+      <c r="F265" s="1">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G265">
+        <f t="shared" si="8"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266">
+        <f t="shared" ref="A266" si="9">A265+1</f>
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>330</v>
+      </c>
+      <c r="C266" t="s">
+        <v>212</v>
+      </c>
+      <c r="D266" s="8">
+        <v>43918</v>
+      </c>
+      <c r="E266">
+        <v>29869</v>
+      </c>
+      <c r="F266" s="1">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="G266">
+        <f t="shared" si="8"/>
+        <v>-34</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C112:C117 C135:C138">
+    <cfRule type="expression" dxfId="47" priority="49">
+      <formula>E112=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118:C123">
+    <cfRule type="expression" dxfId="46" priority="48">
+      <formula>E118=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124:C128">
+    <cfRule type="expression" dxfId="45" priority="47">
+      <formula>E124=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129:C130">
+    <cfRule type="expression" dxfId="44" priority="46">
+      <formula>E129=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131:C132">
+    <cfRule type="expression" dxfId="43" priority="45">
+      <formula>E131=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133:C134">
+    <cfRule type="expression" dxfId="42" priority="44">
+      <formula>E133=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139:C140">
+    <cfRule type="expression" dxfId="41" priority="42">
+      <formula>E139=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141:C142">
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>E141=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143:C144">
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>E143=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145:C146">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>E145=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>E147=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>E148=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>E149=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C150">
+    <cfRule type="expression" dxfId="34" priority="35">
+      <formula>E150=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151:C153">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>E151=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154:C156">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>E154=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>E157=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>E158=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>E159=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C160:C162">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>E160=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>E163=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>E162=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>E164=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C165">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>E165=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>E166=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:C169">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>E167=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C170:C176">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>E170=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C177:C178">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>E177=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>K179=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C180:C183">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>E180=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C184:C185">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>E184=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C186:C189">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>E186=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C190:C192">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>E190=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C193:C200">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>E193=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C201:C217">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>E201=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C218:C220">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>E218=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C221:C227">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>E221=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C228:C231">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>E228=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C232:C235">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>E232=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C236:C239">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>E236=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C240:C241">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>K240=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C242:C244">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>E242=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C245:C247">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>E245=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C251:C253">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>E251=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C248:C250">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>E248=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C254:C258">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>E254=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C259:C264">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>E259=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C265:C266">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>K264=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>